--- a/Public/report/excel/unit_ywl_20160101_20160430.xlsx
+++ b/Public/report/excel/unit_ywl_20160101_20160430.xlsx
@@ -26,7 +26,7 @@
     <t>有效对公客户</t>
   </si>
   <si>
-    <t xml:space="preserve">储蓄存款日均增量-2016-04-28
+    <t xml:space="preserve">储蓄存款日均增量-2016-05-18
 </t>
   </si>
   <si>
@@ -724,23 +724,23 @@
         <v>2160</v>
       </c>
       <c r="D4" s="3">
-        <v>2540.561367</v>
+        <v>2540.889038</v>
       </c>
       <c r="E4" s="3">
-        <v>117.61858180556</v>
+        <v>117.63375175926</v>
       </c>
       <c r="F4" s="3">
-        <v>653.119234</v>
+        <v>769.276678</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3">
-        <v>2139.084053</v>
+        <v>2139.411724</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>484.395344</v>
+        <v>568.405366</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="3">
@@ -753,20 +753,20 @@
         <v>17</v>
       </c>
       <c r="O4" s="3">
-        <v>83.39</v>
+        <v>83.74</v>
       </c>
       <c r="P4" s="3">
-        <v>490.52941176471</v>
+        <v>492.58823529412</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="3">
-        <v>92.688554</v>
+        <v>93.016225</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>14.524988</v>
+        <v>28.568429</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="3">
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>638.594246</v>
+        <v>740.708249</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -790,23 +790,23 @@
         <v>3105</v>
       </c>
       <c r="D5" s="3">
-        <v>2181.06093</v>
+        <v>2188.851815</v>
       </c>
       <c r="E5" s="3">
-        <v>70.24350821256</v>
+        <v>70.494422383253</v>
       </c>
       <c r="F5" s="3">
-        <v>510.043973</v>
+        <v>859.730366</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3">
-        <v>695.667068</v>
+        <v>696.864016</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>162.358328</v>
+        <v>274.956408</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="3">
@@ -819,30 +819,30 @@
         <v>37</v>
       </c>
       <c r="O5" s="3">
-        <v>47.57</v>
+        <v>48.25</v>
       </c>
       <c r="P5" s="3">
-        <v>128.56756756757</v>
+        <v>130.40540540541</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="3">
-        <v>101.237312</v>
+        <v>104.028897</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
       </c>
       <c r="T5" s="3">
-        <v>17.960385</v>
+        <v>40.809276</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="3">
-        <v>2079.823618</v>
+        <v>2084.822918</v>
       </c>
       <c r="W5" s="3">
         <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>492.083588</v>
+        <v>818.92109</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -856,23 +856,23 @@
         <v>3263</v>
       </c>
       <c r="D6" s="3">
-        <v>1380.93963</v>
+        <v>1381.104081</v>
       </c>
       <c r="E6" s="3">
-        <v>42.321165491879</v>
+        <v>42.326205363163</v>
       </c>
       <c r="F6" s="3">
-        <v>686.502207</v>
+        <v>783.964579</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3">
-        <v>960.250178</v>
+        <v>960.414629</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>324.559448</v>
+        <v>405.608368</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3">
@@ -885,20 +885,20 @@
         <v>26</v>
       </c>
       <c r="O6" s="3">
-        <v>7.79</v>
+        <v>19.47</v>
       </c>
       <c r="P6" s="3">
-        <v>29.961538461538</v>
+        <v>74.884615384615</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="3">
-        <v>86.284839</v>
+        <v>86.44929</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>22.988031</v>
+        <v>31.391539</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="3">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>663.514176</v>
+        <v>752.57304</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -922,23 +922,23 @@
         <v>1868</v>
       </c>
       <c r="D7" s="3">
-        <v>885.256363</v>
+        <v>885.269253</v>
       </c>
       <c r="E7" s="3">
-        <v>47.390597591006</v>
+        <v>47.391287633833</v>
       </c>
       <c r="F7" s="3">
-        <v>156.558277</v>
+        <v>306.602009</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3">
-        <v>870.861177</v>
+        <v>870.874067</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>155.791117</v>
+        <v>305.834849</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="3">
@@ -951,20 +951,20 @@
         <v>18</v>
       </c>
       <c r="O7" s="3">
-        <v>7.53</v>
+        <v>7.47</v>
       </c>
       <c r="P7" s="3">
-        <v>41.833333333333</v>
+        <v>41.5</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="3">
-        <v>38.818653</v>
+        <v>38.831543</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>17.417198</v>
+        <v>40.540171</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="3">
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>139.141079</v>
+        <v>266.061838</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -988,23 +988,23 @@
         <v>2205</v>
       </c>
       <c r="D8" s="3">
-        <v>1283.133543</v>
+        <v>1329.997842</v>
       </c>
       <c r="E8" s="3">
-        <v>58.191997414966</v>
+        <v>60.31736244898</v>
       </c>
       <c r="F8" s="3">
-        <v>407.646395</v>
+        <v>616.045194</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3">
-        <v>1235.344761</v>
+        <v>1306.80906</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>378.711515</v>
+        <v>569.221731</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3">
@@ -1017,30 +1017,30 @@
         <v>34</v>
       </c>
       <c r="O8" s="3">
-        <v>-12.09</v>
+        <v>-11.88</v>
       </c>
       <c r="P8" s="3">
-        <v>-35.558823529412</v>
+        <v>-34.941176470588</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="3">
-        <v>28.375054</v>
+        <v>28.493515</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>2.382678</v>
+        <v>12.803369</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="3">
-        <v>1254.758489</v>
+        <v>1301.504327</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>405.263717</v>
+        <v>603.241825</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1054,23 +1054,23 @@
         <v>2048</v>
       </c>
       <c r="D9" s="3">
-        <v>795.36577</v>
+        <v>801.12436</v>
       </c>
       <c r="E9" s="3">
-        <v>38.836219238281</v>
+        <v>39.117400390625</v>
       </c>
       <c r="F9" s="3">
-        <v>245.285382</v>
+        <v>310.894329</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3">
-        <v>660.967176</v>
+        <v>666.725766</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>276.15959</v>
+        <v>391.768537</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3">
@@ -1083,30 +1083,30 @@
         <v>54</v>
       </c>
       <c r="O9" s="3">
-        <v>-105.53</v>
+        <v>-106.11</v>
       </c>
       <c r="P9" s="3">
-        <v>-195.42592592593</v>
+        <v>-196.5</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="3">
-        <v>14.213672</v>
+        <v>14.233672</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>5.111926</v>
+        <v>5.480392</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="3">
-        <v>781.152098</v>
+        <v>786.890688</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>240.173456</v>
+        <v>305.413937</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1126,7 +1126,7 @@
         <v>3.1946555984556</v>
       </c>
       <c r="F10" s="3">
-        <v>1.77956</v>
+        <v>2.464439</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>1.77956</v>
+        <v>2.464439</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
@@ -1149,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="O10" s="3">
-        <v>5.96</v>
+        <v>6.06</v>
       </c>
       <c r="P10" s="3">
-        <v>99.333333333333</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="3">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>1.77956</v>
+        <v>2.464439</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="3">
@@ -1186,23 +1186,23 @@
         <v>675</v>
       </c>
       <c r="D11" s="3">
-        <v>377.285587</v>
+        <v>392.513621</v>
       </c>
       <c r="E11" s="3">
-        <v>55.894161037037</v>
+        <v>58.150166074074</v>
       </c>
       <c r="F11" s="3">
-        <v>132.959014</v>
+        <v>253.584546</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3">
-        <v>378.84658</v>
+        <v>394.074614</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>131.711014</v>
+        <v>249.395823</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
@@ -1215,30 +1215,30 @@
         <v>10</v>
       </c>
       <c r="O11" s="3">
-        <v>6.38</v>
+        <v>6.54</v>
       </c>
       <c r="P11" s="3">
-        <v>63.8</v>
+        <v>65.4</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="3">
-        <v>27.078937</v>
+        <v>27.091827</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
       </c>
       <c r="T11" s="3">
-        <v>5.012529</v>
+        <v>9.593059</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="3">
-        <v>350.20665</v>
+        <v>365.421794</v>
       </c>
       <c r="W11" s="3">
         <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>127.946485</v>
+        <v>243.991487</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1252,23 +1252,23 @@
         <v>1665</v>
       </c>
       <c r="D12" s="3">
-        <v>1033.32027</v>
+        <v>1056.200182</v>
       </c>
       <c r="E12" s="3">
-        <v>62.061277477477</v>
+        <v>63.435446366366</v>
       </c>
       <c r="F12" s="3">
-        <v>350.7567</v>
+        <v>604.285111</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3">
-        <v>1046.845531</v>
+        <v>1069.725443</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>344.147963</v>
+        <v>592.584989</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3">
@@ -1281,30 +1281,30 @@
         <v>17</v>
       </c>
       <c r="O12" s="3">
-        <v>3.61</v>
+        <v>4.05</v>
       </c>
       <c r="P12" s="3">
-        <v>21.235294117647</v>
+        <v>23.823529411765</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="3">
-        <v>47.455952</v>
+        <v>47.507513</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>16.024391</v>
+        <v>18.604595</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="3">
-        <v>985.864318</v>
+        <v>1008.692669</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>334.732309</v>
+        <v>585.680516</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1324,7 +1324,7 @@
         <v>1.519604778157</v>
       </c>
       <c r="F13" s="3">
-        <v>0.632102</v>
+        <v>1.122458</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0.632102</v>
+        <v>1.122458</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3">
@@ -1347,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="O13" s="3">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P13" s="3">
-        <v>30.833333333333</v>
+        <v>31.833333333333</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="3">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="3">
-        <v>0.632102</v>
+        <v>1.122458</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="3">
@@ -1390,7 +1390,7 @@
         <v>11.475232818533</v>
       </c>
       <c r="F14" s="3">
-        <v>40.592203</v>
+        <v>74.731266</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>25.089868</v>
+        <v>41.226431</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="3">
@@ -1413,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="O14" s="3">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P14" s="3">
-        <v>34.666666666667</v>
+        <v>34.166666666667</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="3">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>0.089868</v>
+        <v>0.226431</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="3">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>40.502335</v>
+        <v>74.504835</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1456,21 +1456,21 @@
         <v>54.798320888158</v>
       </c>
       <c r="F15" s="3">
-        <v>52.86259</v>
+        <v>100.577751</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3">
-        <v>401.805201</v>
+        <v>411.805201</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>39.122781</v>
+        <v>106.878812</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>6</v>
       </c>
       <c r="O15" s="3">
-        <v>5.37</v>
+        <v>5.16</v>
       </c>
       <c r="P15" s="3">
-        <v>89.5</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="3">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>2.878673</v>
+        <v>4.960478</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="3">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>49.983917</v>
+        <v>95.617273</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1516,23 +1516,23 @@
         <v>450</v>
       </c>
       <c r="D16" s="3">
-        <v>147.728178</v>
+        <v>147.737478</v>
       </c>
       <c r="E16" s="3">
-        <v>32.828484</v>
+        <v>32.830550666667</v>
       </c>
       <c r="F16" s="3">
-        <v>24.563542</v>
+        <v>76.423884</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3">
-        <v>150.876974</v>
+        <v>150.886274</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>24.563556</v>
+        <v>77.170654</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
@@ -1545,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="O16" s="3">
-        <v>6.24</v>
+        <v>6.29</v>
       </c>
       <c r="P16" s="3">
-        <v>104</v>
+        <v>104.83333333333</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="3">
@@ -1558,17 +1558,17 @@
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0.606251</v>
+        <v>0.723005</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="3">
-        <v>141.597369</v>
+        <v>141.606669</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="3">
-        <v>23.957291</v>
+        <v>75.700879</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1588,7 +1588,7 @@
         <v>29.058508060649</v>
       </c>
       <c r="F17" s="3">
-        <v>57.592855</v>
+        <v>94.138455</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>59.917678</v>
+        <v>96.463283</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
@@ -1611,10 +1611,10 @@
         <v>7</v>
       </c>
       <c r="O17" s="3">
-        <v>-3.91</v>
+        <v>-4.02</v>
       </c>
       <c r="P17" s="3">
-        <v>-55.857142857143</v>
+        <v>-57.428571428571</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="3">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>9.879669</v>
+        <v>14.708435</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="3">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>47.713186</v>
+        <v>79.43002</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1654,7 +1654,7 @@
         <v>4.4535225925926</v>
       </c>
       <c r="F18" s="3">
-        <v>1.013773</v>
+        <v>1.653711</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>1.013773</v>
+        <v>1.653711</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3">
@@ -1677,10 +1677,10 @@
         <v>6</v>
       </c>
       <c r="O18" s="3">
-        <v>11.96</v>
+        <v>12.11</v>
       </c>
       <c r="P18" s="3">
-        <v>199.33333333333</v>
+        <v>201.83333333333</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="3">
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>1.013773</v>
+        <v>1.653711</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="3">
@@ -1714,23 +1714,23 @@
         <v>293</v>
       </c>
       <c r="D19" s="3">
-        <v>247.145733</v>
+        <v>264.071322</v>
       </c>
       <c r="E19" s="3">
-        <v>84.350079522184</v>
+        <v>90.126731058021</v>
       </c>
       <c r="F19" s="3">
-        <v>75.910698</v>
+        <v>103.216398</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3">
-        <v>173.659788</v>
+        <v>190.585377</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>76.740698</v>
+        <v>153.346464</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3">
@@ -1743,10 +1743,10 @@
         <v>8</v>
       </c>
       <c r="O19" s="3">
-        <v>15.34</v>
+        <v>15.81</v>
       </c>
       <c r="P19" s="3">
-        <v>191.75</v>
+        <v>197.625</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="3">
@@ -1756,17 +1756,17 @@
         <v>0</v>
       </c>
       <c r="T19" s="3">
-        <v>7.034422</v>
+        <v>8.155961</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="3">
-        <v>227.456396</v>
+        <v>244.381985</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>68.876276</v>
+        <v>95.060437</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1932,23 +1932,23 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3">
-        <v>639.846155</v>
+        <v>640.575005</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>91.104299</v>
+        <v>130.520405</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3">
-        <v>427.60588</v>
+        <v>451.60588</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>42.764324</v>
+        <v>93.315368</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="3">
-        <v>-45.79</v>
+        <v>-46.14</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1976,13 +1976,13 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="3">
-        <v>639.846155</v>
+        <v>640.575005</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>91.104299</v>
+        <v>130.520405</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2002,7 +2002,7 @@
         <v>34.48549478972</v>
       </c>
       <c r="F23" s="3">
-        <v>1.214874</v>
+        <v>12.870174</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>11.6553</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3">
-        <v>12.97</v>
+        <v>12.09</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>1.214874</v>
+        <v>12.870174</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
